--- a/doc/体制図/体制図.xlsx
+++ b/doc/体制図/体制図.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD8E74E-5172-4915-B01B-B20320FD0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AD2AC-8B17-4B95-8D63-DB948F0B7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30480" windowHeight="17412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="12" r:id="rId1"/>
@@ -277,13 +277,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7324</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -498,13 +498,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -584,13 +584,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -675,13 +675,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -761,13 +761,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>227134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7324</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -847,13 +847,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>227134</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>227132</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -933,13 +933,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>227132</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>227134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>227132</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1019,13 +1019,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>227133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1105,13 +1105,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120893</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120893</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>227133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1163,13 +1163,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1221,13 +1221,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>113567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>113569</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1280,13 +1280,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1338,13 +1338,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>227134</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1396,13 +1396,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>113565</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120891</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1456,13 +1456,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>120892</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>113564</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>227133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1516,13 +1516,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1599,13 +1599,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1682,13 +1682,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>227133</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1765,13 +1765,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>113568</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120895</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1824,13 +1824,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120895</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>113567</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>227133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2440,7 +2440,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="1:54" ht="18" customHeight="1">
+    <row r="7" spans="1:54">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
